--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H2">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I2">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J2">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3930163333333334</v>
+        <v>0.3331563333333333</v>
       </c>
       <c r="N2">
-        <v>1.179049</v>
+        <v>0.9994690000000001</v>
       </c>
       <c r="O2">
-        <v>0.03108558724574715</v>
+        <v>0.02641712724508605</v>
       </c>
       <c r="P2">
-        <v>0.03108558724574714</v>
+        <v>0.02641712724508605</v>
       </c>
       <c r="Q2">
-        <v>6.610800012691667</v>
+        <v>14.943908568712</v>
       </c>
       <c r="R2">
-        <v>59.497200114225</v>
+        <v>134.495177118408</v>
       </c>
       <c r="S2">
-        <v>0.0261976392979295</v>
+        <v>0.0244876929543038</v>
       </c>
       <c r="T2">
-        <v>0.0261976392979295</v>
+        <v>0.0244876929543038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H3">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I3">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J3">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.516822</v>
       </c>
       <c r="O3">
-        <v>0.5145603558806439</v>
+        <v>0.5158522877584945</v>
       </c>
       <c r="P3">
-        <v>0.5145603558806437</v>
+        <v>0.5158522877584945</v>
       </c>
       <c r="Q3">
-        <v>109.4287066316166</v>
+        <v>291.812555987056</v>
       </c>
       <c r="R3">
-        <v>984.8583596845498</v>
+        <v>2626.313003883504</v>
       </c>
       <c r="S3">
-        <v>0.4336500544064707</v>
+        <v>0.4781758559593157</v>
       </c>
       <c r="T3">
-        <v>0.4336500544064706</v>
+        <v>0.4781758559593158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H4">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I4">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J4">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.007097666666667</v>
+        <v>4.637142333333333</v>
       </c>
       <c r="N4">
-        <v>15.021293</v>
+        <v>13.911427</v>
       </c>
       <c r="O4">
-        <v>0.3960358849339009</v>
+        <v>0.3676951833620909</v>
       </c>
       <c r="P4">
-        <v>0.3960358849339009</v>
+        <v>0.3676951833620909</v>
       </c>
       <c r="Q4">
-        <v>84.22276254425832</v>
+        <v>208.001541967096</v>
       </c>
       <c r="R4">
-        <v>758.004862898325</v>
+        <v>1872.013877703864</v>
       </c>
       <c r="S4">
-        <v>0.3337625627115694</v>
+        <v>0.3408397388335322</v>
       </c>
       <c r="T4">
-        <v>0.3337625627115695</v>
+        <v>0.3408397388335323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H5">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I5">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J5">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7373189999999999</v>
+        <v>1.135470333333333</v>
       </c>
       <c r="N5">
-        <v>2.211957</v>
+        <v>3.406411</v>
       </c>
       <c r="O5">
-        <v>0.05831817193970829</v>
+        <v>0.09003540163432863</v>
       </c>
       <c r="P5">
-        <v>0.05831817193970829</v>
+        <v>0.09003540163432863</v>
       </c>
       <c r="Q5">
-        <v>12.402203270325</v>
+        <v>50.93213949752801</v>
       </c>
       <c r="R5">
-        <v>111.619829432925</v>
+        <v>458.389255477752</v>
       </c>
       <c r="S5">
-        <v>0.04914812838866767</v>
+        <v>0.08345946361934482</v>
       </c>
       <c r="T5">
-        <v>0.04914812838866767</v>
+        <v>0.08345946361934485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.393449</v>
       </c>
       <c r="I6">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J6">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3930163333333334</v>
+        <v>0.3331563333333333</v>
       </c>
       <c r="N6">
-        <v>1.179049</v>
+        <v>0.9994690000000001</v>
       </c>
       <c r="O6">
-        <v>0.03108558724574715</v>
+        <v>0.02641712724508605</v>
       </c>
       <c r="P6">
-        <v>0.03108558724574714</v>
+        <v>0.02641712724508605</v>
       </c>
       <c r="Q6">
-        <v>0.5755657388890001</v>
+        <v>0.4879017865090001</v>
       </c>
       <c r="R6">
-        <v>5.180091650001001</v>
+        <v>4.391116078581001</v>
       </c>
       <c r="S6">
-        <v>0.00228088334100443</v>
+        <v>0.0007994955994915075</v>
       </c>
       <c r="T6">
-        <v>0.00228088334100443</v>
+        <v>0.0007994955994915078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.393449</v>
       </c>
       <c r="I7">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J7">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.516822</v>
       </c>
       <c r="O7">
-        <v>0.5145603558806439</v>
+        <v>0.5158522877584945</v>
       </c>
       <c r="P7">
-        <v>0.5145603558806437</v>
+        <v>0.5158522877584945</v>
       </c>
       <c r="Q7">
         <v>9.527351344342001</v>
@@ -883,10 +883,10 @@
         <v>85.74616209907799</v>
       </c>
       <c r="S7">
-        <v>0.0377555081842644</v>
+        <v>0.01561190322567187</v>
       </c>
       <c r="T7">
-        <v>0.0377555081842644</v>
+        <v>0.01561190322567188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.393449</v>
       </c>
       <c r="I8">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J8">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.007097666666667</v>
+        <v>4.637142333333333</v>
       </c>
       <c r="N8">
-        <v>15.021293</v>
+        <v>13.911427</v>
       </c>
       <c r="O8">
-        <v>0.3960358849339009</v>
+        <v>0.3676951833620909</v>
       </c>
       <c r="P8">
-        <v>0.3960358849339009</v>
+        <v>0.3676951833620909</v>
       </c>
       <c r="Q8">
-        <v>7.332809412173001</v>
+        <v>6.791016115747001</v>
       </c>
       <c r="R8">
-        <v>65.99528470955701</v>
+        <v>61.119145041723</v>
       </c>
       <c r="S8">
-        <v>0.02905885757423691</v>
+        <v>0.01112803365501816</v>
       </c>
       <c r="T8">
-        <v>0.02905885757423691</v>
+        <v>0.01112803365501816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.393449</v>
       </c>
       <c r="I9">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J9">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7373189999999999</v>
+        <v>1.135470333333333</v>
       </c>
       <c r="N9">
-        <v>2.211957</v>
+        <v>3.406411</v>
       </c>
       <c r="O9">
-        <v>0.05831817193970829</v>
+        <v>0.09003540163432863</v>
       </c>
       <c r="P9">
-        <v>0.05831817193970829</v>
+        <v>0.09003540163432863</v>
       </c>
       <c r="Q9">
-        <v>1.079791141077</v>
+        <v>1.662877000171</v>
       </c>
       <c r="R9">
-        <v>9.718120269693001</v>
+        <v>14.965893001539</v>
       </c>
       <c r="S9">
-        <v>0.004279055299922341</v>
+        <v>0.002724857503894034</v>
       </c>
       <c r="T9">
-        <v>0.004279055299922341</v>
+        <v>0.002724857503894034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H10">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I10">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J10">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3930163333333334</v>
+        <v>0.3331563333333333</v>
       </c>
       <c r="N10">
-        <v>1.179049</v>
+        <v>0.9994690000000001</v>
       </c>
       <c r="O10">
-        <v>0.03108558724574715</v>
+        <v>0.02641712724508605</v>
       </c>
       <c r="P10">
-        <v>0.03108558724574714</v>
+        <v>0.02641712724508605</v>
       </c>
       <c r="Q10">
-        <v>0.6137610312439999</v>
+        <v>0.6554643190885555</v>
       </c>
       <c r="R10">
-        <v>5.523849281195999</v>
+        <v>5.899178871797</v>
       </c>
       <c r="S10">
-        <v>0.002432245731346629</v>
+        <v>0.001074070342075558</v>
       </c>
       <c r="T10">
-        <v>0.002432245731346629</v>
+        <v>0.001074070342075558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H11">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I11">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J11">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.516822</v>
       </c>
       <c r="O11">
-        <v>0.5145603558806439</v>
+        <v>0.5158522877584945</v>
       </c>
       <c r="P11">
-        <v>0.5145603558806437</v>
+        <v>0.5158522877584945</v>
       </c>
       <c r="Q11">
-        <v>10.159598793032</v>
+        <v>12.79937691214289</v>
       </c>
       <c r="R11">
-        <v>91.43638913728797</v>
+        <v>115.194392209286</v>
       </c>
       <c r="S11">
-        <v>0.04026101290018649</v>
+        <v>0.02097357665096943</v>
       </c>
       <c r="T11">
-        <v>0.04026101290018648</v>
+        <v>0.02097357665096944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H12">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I12">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J12">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.007097666666667</v>
+        <v>4.637142333333333</v>
       </c>
       <c r="N12">
-        <v>15.021293</v>
+        <v>13.911427</v>
       </c>
       <c r="O12">
-        <v>0.3960358849339009</v>
+        <v>0.3676951833620909</v>
       </c>
       <c r="P12">
-        <v>0.3960358849339009</v>
+        <v>0.3676951833620909</v>
       </c>
       <c r="Q12">
-        <v>7.819424198907999</v>
+        <v>9.123288492294554</v>
       </c>
       <c r="R12">
-        <v>70.37481779017199</v>
+        <v>82.109596430651</v>
       </c>
       <c r="S12">
-        <v>0.03098724122454368</v>
+        <v>0.01494978949487093</v>
       </c>
       <c r="T12">
-        <v>0.03098724122454368</v>
+        <v>0.01494978949487093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H13">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I13">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J13">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7373189999999999</v>
+        <v>1.135470333333333</v>
       </c>
       <c r="N13">
-        <v>2.211957</v>
+        <v>3.406411</v>
       </c>
       <c r="O13">
-        <v>0.05831817193970829</v>
+        <v>0.09003540163432863</v>
       </c>
       <c r="P13">
-        <v>0.05831817193970829</v>
+        <v>0.09003540163432863</v>
       </c>
       <c r="Q13">
-        <v>1.151447488092</v>
+        <v>2.233967103182555</v>
       </c>
       <c r="R13">
-        <v>10.363027392828</v>
+        <v>20.105703928643</v>
       </c>
       <c r="S13">
-        <v>0.004563018984938111</v>
+        <v>0.003660668843175669</v>
       </c>
       <c r="T13">
-        <v>0.004563018984938111</v>
+        <v>0.00366066884317567</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H14">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I14">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J14">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3930163333333334</v>
+        <v>0.3331563333333333</v>
       </c>
       <c r="N14">
-        <v>1.179049</v>
+        <v>0.9994690000000001</v>
       </c>
       <c r="O14">
-        <v>0.03108558724574715</v>
+        <v>0.02641712724508605</v>
       </c>
       <c r="P14">
-        <v>0.03108558724574714</v>
+        <v>0.02641712724508605</v>
       </c>
       <c r="Q14">
-        <v>0.04411438034588888</v>
+        <v>0.03409433073644445</v>
       </c>
       <c r="R14">
-        <v>0.3970294231129999</v>
+        <v>0.306848976628</v>
       </c>
       <c r="S14">
-        <v>0.0001748188754665887</v>
+        <v>5.586834921518076E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001748188754665887</v>
+        <v>5.586834921518077E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H15">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I15">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J15">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.516822</v>
       </c>
       <c r="O15">
-        <v>0.5145603558806439</v>
+        <v>0.5158522877584945</v>
       </c>
       <c r="P15">
-        <v>0.5145603558806437</v>
+        <v>0.5158522877584945</v>
       </c>
       <c r="Q15">
-        <v>0.7302262322015554</v>
+        <v>0.6657665062071111</v>
       </c>
       <c r="R15">
-        <v>6.572036089813999</v>
+        <v>5.991898555863999</v>
       </c>
       <c r="S15">
-        <v>0.002893780389722206</v>
+        <v>0.00109095192253739</v>
       </c>
       <c r="T15">
-        <v>0.002893780389722206</v>
+        <v>0.00109095192253739</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H16">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I16">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J16">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.007097666666667</v>
+        <v>4.637142333333333</v>
       </c>
       <c r="N16">
-        <v>15.021293</v>
+        <v>13.911427</v>
       </c>
       <c r="O16">
-        <v>0.3960358849339009</v>
+        <v>0.3676951833620909</v>
       </c>
       <c r="P16">
-        <v>0.3960358849339009</v>
+        <v>0.3676951833620909</v>
       </c>
       <c r="Q16">
-        <v>0.562025015660111</v>
+        <v>0.4745527806804444</v>
       </c>
       <c r="R16">
-        <v>5.058225140941</v>
+        <v>4.270975026124</v>
       </c>
       <c r="S16">
-        <v>0.002227223423550794</v>
+        <v>0.000777621378669568</v>
       </c>
       <c r="T16">
-        <v>0.002227223423550794</v>
+        <v>0.0007776213786695681</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H17">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I17">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J17">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7373189999999999</v>
+        <v>1.135470333333333</v>
       </c>
       <c r="N17">
-        <v>2.211957</v>
+        <v>3.406411</v>
       </c>
       <c r="O17">
-        <v>0.05831817193970829</v>
+        <v>0.09003540163432863</v>
       </c>
       <c r="P17">
-        <v>0.05831817193970829</v>
+        <v>0.09003540163432863</v>
       </c>
       <c r="Q17">
-        <v>0.08276086270099998</v>
+        <v>0.1162010059924445</v>
       </c>
       <c r="R17">
-        <v>0.7448477643089999</v>
+        <v>1.045809053932</v>
       </c>
       <c r="S17">
-        <v>0.0003279692661801579</v>
+        <v>0.0001904116679140955</v>
       </c>
       <c r="T17">
-        <v>0.0003279692661801579</v>
+        <v>0.0001904116679140955</v>
       </c>
     </row>
   </sheetData>
